--- a/collect_data_scripts/m2_pretrain_data_map_0731.xlsx
+++ b/collect_data_scripts/m2_pretrain_data_map_0731.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/y726wang/mydisk/2025/2025_git/AgentCPT/collect_data_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433C8CDD-4AC2-444D-BC7A-C70D8A09A8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE346796-AD8C-2841-8C75-29252BE4EF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17240" activeTab="2" xr2:uid="{4CE793B0-973D-0846-B938-F8B76078755A}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="29400" windowHeight="17240" xr2:uid="{4CE793B0-973D-0846-B938-F8B76078755A}"/>
   </bookViews>
   <sheets>
     <sheet name="全" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="303">
   <si>
     <t>m2 dataset</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -963,6 +963,14 @@
   </si>
   <si>
     <t>/minimax-dialogue/data/users/Dan/code/projects/m2_distribution/data/m2_cc_with_code_math_after_clean/plain/batch_*/other/code_output/bucket_*/*.jsonl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1_pr_low_quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/minimax-dialogue/data/users/Dan/code/projects/m2_distribution/data/m2_cc_with_code_math_after_clean/plain/batch_*/en/general_output/bucket_EHQ/*.jsonl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1468,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDDCC9B-20B8-B442-AA62-138B379000C9}">
   <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1496,7 +1504,7 @@
     </row>
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="14" t="s">
-        <v>4</v>
+        <v>301</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>148</v>
@@ -2591,7 +2599,7 @@
         <v>95</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="C93" s="20"/>
       <c r="D93" s="15">
@@ -3234,6 +3242,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5457,8 +5466,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
